--- a/data/excel/Travellerprofling.xlsx
+++ b/data/excel/Travellerprofling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A19FBB-B3EE-4BB3-8926-F9F9DCE2FAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDC9EAF-E5B3-49C6-A9B0-89CA061695A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Laxmi</t>
   </si>
   <si>
-    <t>Admin@123</t>
-  </si>
-  <si>
     <t>Select_branch</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Dom11235</t>
+  </si>
+  <si>
+    <t>Xchange@720</t>
   </si>
 </sst>
 </file>
@@ -201,10 +201,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,51 +511,51 @@
     <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -571,38 +571,38 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
+      <c r="E2" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/Travellerprofling.xlsx
+++ b/data/excel/Travellerprofling.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDC9EAF-E5B3-49C6-A9B0-89CA061695A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -120,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,11 +484,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8844D950-F787-452B-B804-19BAD0789B4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +606,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A8D0300C-07E2-49B9-9875-8701B50C4A00}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
